--- a/Symphony/DECEMBER/30.12.2021/MC Bank Statement December-2021.xlsx
+++ b/Symphony/DECEMBER/30.12.2021/MC Bank Statement December-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\Symphony\DECEMBER\29.12.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\Symphony\DECEMBER\30.12.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -162,6 +162,21 @@
             <charset val="1"/>
           </rPr>
           <t>RSM+ASM Launch + Tea Bill</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">sikreeti
+</t>
         </r>
       </text>
     </comment>
@@ -874,9 +889,6 @@
     <t>22.12.2021</t>
   </si>
   <si>
-    <t>Office Rent</t>
-  </si>
-  <si>
     <t>23.12.2021</t>
   </si>
   <si>
@@ -922,16 +934,19 @@
     <t>29.12.2021</t>
   </si>
   <si>
-    <t>Date:29.12.2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">L=Sabbir Mobile </t>
   </si>
   <si>
     <t>Back Margin Nov'21</t>
   </si>
   <si>
-    <t>Realme(+)</t>
+    <t>30.12.2021</t>
+  </si>
+  <si>
+    <t>Brac Bank Deposit+Transfer</t>
+  </si>
+  <si>
+    <t>Date:30.12.2021</t>
   </si>
 </sst>
 </file>
@@ -2301,7 +2316,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="369">
+  <cellXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3228,6 +3243,9 @@
     <xf numFmtId="1" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3239,18 +3257,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3279,10 +3285,22 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4041,33 +4059,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="322"/>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
+      <c r="A1" s="323"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="323"/>
-      <c r="B2" s="320" t="s">
+      <c r="A2" s="324"/>
+      <c r="B2" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="323"/>
-      <c r="B3" s="321" t="s">
+      <c r="A3" s="324"/>
+      <c r="B3" s="322" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="323"/>
+      <c r="A4" s="324"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -4085,7 +4103,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="323"/>
+      <c r="A5" s="324"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -4103,7 +4121,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="323"/>
+      <c r="A6" s="324"/>
       <c r="B6" s="28"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -4115,7 +4133,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="323"/>
+      <c r="A7" s="324"/>
       <c r="B7" s="28" t="s">
         <v>61</v>
       </c>
@@ -4134,7 +4152,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="323"/>
+      <c r="A8" s="324"/>
       <c r="B8" s="28" t="s">
         <v>62</v>
       </c>
@@ -4153,7 +4171,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="323"/>
+      <c r="A9" s="324"/>
       <c r="B9" s="28" t="s">
         <v>64</v>
       </c>
@@ -4172,7 +4190,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="323"/>
+      <c r="A10" s="324"/>
       <c r="B10" s="28" t="s">
         <v>65</v>
       </c>
@@ -4191,7 +4209,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="323"/>
+      <c r="A11" s="324"/>
       <c r="B11" s="28" t="s">
         <v>66</v>
       </c>
@@ -4210,7 +4228,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="323"/>
+      <c r="A12" s="324"/>
       <c r="B12" s="28" t="s">
         <v>67</v>
       </c>
@@ -4229,7 +4247,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="323"/>
+      <c r="A13" s="324"/>
       <c r="B13" s="28" t="s">
         <v>68</v>
       </c>
@@ -4248,7 +4266,7 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="323"/>
+      <c r="A14" s="324"/>
       <c r="B14" s="28" t="s">
         <v>69</v>
       </c>
@@ -4267,7 +4285,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="323"/>
+      <c r="A15" s="324"/>
       <c r="B15" s="28" t="s">
         <v>70</v>
       </c>
@@ -4286,7 +4304,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="323"/>
+      <c r="A16" s="324"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -4299,7 +4317,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="323"/>
+      <c r="A17" s="324"/>
       <c r="B17" s="28"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -4312,7 +4330,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="323"/>
+      <c r="A18" s="324"/>
       <c r="B18" s="28"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -4325,7 +4343,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="323"/>
+      <c r="A19" s="324"/>
       <c r="B19" s="28"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -4338,7 +4356,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="323"/>
+      <c r="A20" s="324"/>
       <c r="B20" s="28"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -4351,7 +4369,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="323"/>
+      <c r="A21" s="324"/>
       <c r="B21" s="28"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -4364,7 +4382,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="323"/>
+      <c r="A22" s="324"/>
       <c r="B22" s="28"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -4377,7 +4395,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="323"/>
+      <c r="A23" s="324"/>
       <c r="B23" s="28"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -4390,7 +4408,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="323"/>
+      <c r="A24" s="324"/>
       <c r="B24" s="28"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -4403,7 +4421,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="323"/>
+      <c r="A25" s="324"/>
       <c r="B25" s="28"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -4416,7 +4434,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="323"/>
+      <c r="A26" s="324"/>
       <c r="B26" s="28"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -4429,7 +4447,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="323"/>
+      <c r="A27" s="324"/>
       <c r="B27" s="28"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -4442,7 +4460,7 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="323"/>
+      <c r="A28" s="324"/>
       <c r="B28" s="28"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -4455,7 +4473,7 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="323"/>
+      <c r="A29" s="324"/>
       <c r="B29" s="28"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -4468,7 +4486,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="323"/>
+      <c r="A30" s="324"/>
       <c r="B30" s="28"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -4481,7 +4499,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="323"/>
+      <c r="A31" s="324"/>
       <c r="B31" s="28"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -4494,7 +4512,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="323"/>
+      <c r="A32" s="324"/>
       <c r="B32" s="28"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -4507,7 +4525,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="323"/>
+      <c r="A33" s="324"/>
       <c r="B33" s="28"/>
       <c r="C33" s="27"/>
       <c r="D33" s="30"/>
@@ -4520,7 +4538,7 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="323"/>
+      <c r="A34" s="324"/>
       <c r="B34" s="28"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4533,7 +4551,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="323"/>
+      <c r="A35" s="324"/>
       <c r="B35" s="28"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4546,7 +4564,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="323"/>
+      <c r="A36" s="324"/>
       <c r="B36" s="28"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -4559,7 +4577,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="323"/>
+      <c r="A37" s="324"/>
       <c r="B37" s="28"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -4572,7 +4590,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="323"/>
+      <c r="A38" s="324"/>
       <c r="B38" s="28"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -4585,7 +4603,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="323"/>
+      <c r="A39" s="324"/>
       <c r="B39" s="28"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -4598,7 +4616,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="323"/>
+      <c r="A40" s="324"/>
       <c r="B40" s="28"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -4611,7 +4629,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="323"/>
+      <c r="A41" s="324"/>
       <c r="B41" s="28"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -4624,7 +4642,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="323"/>
+      <c r="A42" s="324"/>
       <c r="B42" s="28"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -4637,7 +4655,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="323"/>
+      <c r="A43" s="324"/>
       <c r="B43" s="28"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -4650,7 +4668,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="323"/>
+      <c r="A44" s="324"/>
       <c r="B44" s="28"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -4663,7 +4681,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="323"/>
+      <c r="A45" s="324"/>
       <c r="B45" s="28"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -4676,7 +4694,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="323"/>
+      <c r="A46" s="324"/>
       <c r="B46" s="28"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -4689,7 +4707,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="323"/>
+      <c r="A47" s="324"/>
       <c r="B47" s="28"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -4702,7 +4720,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="323"/>
+      <c r="A48" s="324"/>
       <c r="B48" s="28"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -4715,7 +4733,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="323"/>
+      <c r="A49" s="324"/>
       <c r="B49" s="28"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -4728,7 +4746,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="323"/>
+      <c r="A50" s="324"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -4741,7 +4759,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="323"/>
+      <c r="A51" s="324"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -4754,7 +4772,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="323"/>
+      <c r="A52" s="324"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -4767,7 +4785,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="323"/>
+      <c r="A53" s="324"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -4780,7 +4798,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="323"/>
+      <c r="A54" s="324"/>
       <c r="B54" s="28"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -4793,7 +4811,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="323"/>
+      <c r="A55" s="324"/>
       <c r="B55" s="28"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -4805,7 +4823,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="323"/>
+      <c r="A56" s="324"/>
       <c r="B56" s="28"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -4817,7 +4835,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="323"/>
+      <c r="A57" s="324"/>
       <c r="B57" s="28"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -4829,7 +4847,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="323"/>
+      <c r="A58" s="324"/>
       <c r="B58" s="28"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -4841,7 +4859,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="323"/>
+      <c r="A59" s="324"/>
       <c r="B59" s="28"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -4853,7 +4871,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="323"/>
+      <c r="A60" s="324"/>
       <c r="B60" s="28"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -4865,7 +4883,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="323"/>
+      <c r="A61" s="324"/>
       <c r="B61" s="28"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -4877,7 +4895,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="323"/>
+      <c r="A62" s="324"/>
       <c r="B62" s="28"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -4889,7 +4907,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="323"/>
+      <c r="A63" s="324"/>
       <c r="B63" s="28"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -4901,7 +4919,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="323"/>
+      <c r="A64" s="324"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -4913,7 +4931,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="323"/>
+      <c r="A65" s="324"/>
       <c r="B65" s="28"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -4925,7 +4943,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="323"/>
+      <c r="A66" s="324"/>
       <c r="B66" s="28"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -4937,7 +4955,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="323"/>
+      <c r="A67" s="324"/>
       <c r="B67" s="28"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -4949,7 +4967,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="323"/>
+      <c r="A68" s="324"/>
       <c r="B68" s="28"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -4961,7 +4979,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="323"/>
+      <c r="A69" s="324"/>
       <c r="B69" s="28"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -4973,7 +4991,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="323"/>
+      <c r="A70" s="324"/>
       <c r="B70" s="28"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -4985,7 +5003,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="323"/>
+      <c r="A71" s="324"/>
       <c r="B71" s="28"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -4997,7 +5015,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="323"/>
+      <c r="A72" s="324"/>
       <c r="B72" s="28"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -5009,7 +5027,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="323"/>
+      <c r="A73" s="324"/>
       <c r="B73" s="28"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -5021,7 +5039,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="323"/>
+      <c r="A74" s="324"/>
       <c r="B74" s="28"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -5033,7 +5051,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="323"/>
+      <c r="A75" s="324"/>
       <c r="B75" s="28"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -5045,7 +5063,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="323"/>
+      <c r="A76" s="324"/>
       <c r="B76" s="28"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -5057,7 +5075,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="323"/>
+      <c r="A77" s="324"/>
       <c r="B77" s="28"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -5069,7 +5087,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="323"/>
+      <c r="A78" s="324"/>
       <c r="B78" s="28"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -5081,7 +5099,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="323"/>
+      <c r="A79" s="324"/>
       <c r="B79" s="28"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -5093,7 +5111,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="323"/>
+      <c r="A80" s="324"/>
       <c r="B80" s="28"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -5105,7 +5123,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="323"/>
+      <c r="A81" s="324"/>
       <c r="B81" s="28"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -5117,7 +5135,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="323"/>
+      <c r="A82" s="324"/>
       <c r="B82" s="28"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -5129,7 +5147,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="323"/>
+      <c r="A83" s="324"/>
       <c r="B83" s="33"/>
       <c r="C83" s="29">
         <f>SUM(C5:C72)</f>
@@ -5169,7 +5187,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5186,33 +5204,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="322"/>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
+      <c r="A1" s="323"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="323"/>
-      <c r="B2" s="320" t="s">
+      <c r="A2" s="324"/>
+      <c r="B2" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="323"/>
-      <c r="B3" s="321" t="s">
+      <c r="A3" s="324"/>
+      <c r="B3" s="322" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="323"/>
+      <c r="A4" s="324"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -5230,7 +5248,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="323"/>
+      <c r="A5" s="324"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -5248,7 +5266,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="323"/>
+      <c r="A6" s="324"/>
       <c r="B6" s="28"/>
       <c r="C6" s="275"/>
       <c r="D6" s="275"/>
@@ -5260,7 +5278,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="323"/>
+      <c r="A7" s="324"/>
       <c r="B7" s="28" t="s">
         <v>177</v>
       </c>
@@ -5279,7 +5297,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="323"/>
+      <c r="A8" s="324"/>
       <c r="B8" s="28" t="s">
         <v>181</v>
       </c>
@@ -5298,7 +5316,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="323"/>
+      <c r="A9" s="324"/>
       <c r="B9" s="28" t="s">
         <v>181</v>
       </c>
@@ -5319,7 +5337,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="323"/>
+      <c r="A10" s="324"/>
       <c r="B10" s="28" t="s">
         <v>184</v>
       </c>
@@ -5334,13 +5352,13 @@
         <v>61038</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="323"/>
+      <c r="A11" s="324"/>
       <c r="B11" s="28" t="s">
         <v>186</v>
       </c>
@@ -5359,7 +5377,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="323"/>
+      <c r="A12" s="324"/>
       <c r="B12" s="28" t="s">
         <v>188</v>
       </c>
@@ -5378,7 +5396,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="323"/>
+      <c r="A13" s="324"/>
       <c r="B13" s="28" t="s">
         <v>192</v>
       </c>
@@ -5397,7 +5415,7 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="323"/>
+      <c r="A14" s="324"/>
       <c r="B14" s="28" t="s">
         <v>193</v>
       </c>
@@ -5416,7 +5434,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="323"/>
+      <c r="A15" s="324"/>
       <c r="B15" s="28" t="s">
         <v>207</v>
       </c>
@@ -5435,7 +5453,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="323"/>
+      <c r="A16" s="324"/>
       <c r="B16" s="28" t="s">
         <v>211</v>
       </c>
@@ -5454,7 +5472,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="323"/>
+      <c r="A17" s="324"/>
       <c r="B17" s="28" t="s">
         <v>212</v>
       </c>
@@ -5473,7 +5491,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="323"/>
+      <c r="A18" s="324"/>
       <c r="B18" s="28" t="s">
         <v>214</v>
       </c>
@@ -5492,7 +5510,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="323"/>
+      <c r="A19" s="324"/>
       <c r="B19" s="28" t="s">
         <v>215</v>
       </c>
@@ -5511,7 +5529,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="323"/>
+      <c r="A20" s="324"/>
       <c r="B20" s="28" t="s">
         <v>217</v>
       </c>
@@ -5530,7 +5548,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="323"/>
+      <c r="A21" s="324"/>
       <c r="B21" s="28" t="s">
         <v>190</v>
       </c>
@@ -5549,7 +5567,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="323"/>
+      <c r="A22" s="324"/>
       <c r="B22" s="28" t="s">
         <v>222</v>
       </c>
@@ -5568,7 +5586,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="323"/>
+      <c r="A23" s="324"/>
       <c r="B23" s="28" t="s">
         <v>223</v>
       </c>
@@ -5587,7 +5605,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="323"/>
+      <c r="A24" s="324"/>
       <c r="B24" s="28" t="s">
         <v>228</v>
       </c>
@@ -5606,7 +5624,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="323"/>
+      <c r="A25" s="324"/>
       <c r="B25" s="28" t="s">
         <v>232</v>
       </c>
@@ -5625,7 +5643,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="323"/>
+      <c r="A26" s="324"/>
       <c r="B26" s="28" t="s">
         <v>233</v>
       </c>
@@ -5644,9 +5662,9 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="323"/>
+      <c r="A27" s="324"/>
       <c r="B27" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C27" s="275">
         <v>270000</v>
@@ -5663,9 +5681,9 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="323"/>
+      <c r="A28" s="324"/>
       <c r="B28" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C28" s="275">
         <v>0</v>
@@ -5682,9 +5700,9 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="323"/>
+      <c r="A29" s="324"/>
       <c r="B29" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C29" s="275">
         <v>1000000</v>
@@ -5701,9 +5719,9 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="323"/>
+      <c r="A30" s="324"/>
       <c r="B30" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C30" s="275">
         <v>2000000</v>
@@ -5716,15 +5734,15 @@
         <v>2026038</v>
       </c>
       <c r="F30" s="301" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="323"/>
+      <c r="A31" s="324"/>
       <c r="B31" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C31" s="275">
         <v>350000</v>
@@ -5741,9 +5759,9 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="323"/>
+      <c r="A32" s="324"/>
       <c r="B32" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C32" s="275">
         <v>300000</v>
@@ -5760,9 +5778,9 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="323"/>
+      <c r="A33" s="324"/>
       <c r="B33" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C33" s="275">
         <v>500000</v>
@@ -5779,20 +5797,28 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="323"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="275"/>
-      <c r="D34" s="275"/>
+      <c r="A34" s="324"/>
+      <c r="B34" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="275">
+        <v>500000</v>
+      </c>
+      <c r="D34" s="299">
+        <v>500000</v>
+      </c>
       <c r="E34" s="277">
         <f t="shared" si="0"/>
         <v>26038</v>
       </c>
-      <c r="F34" s="20"/>
+      <c r="F34" s="320" t="s">
+        <v>252</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="323"/>
+      <c r="A35" s="324"/>
       <c r="B35" s="28"/>
       <c r="C35" s="275"/>
       <c r="D35" s="275"/>
@@ -5805,7 +5831,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="323"/>
+      <c r="A36" s="324"/>
       <c r="B36" s="28"/>
       <c r="C36" s="275"/>
       <c r="D36" s="275"/>
@@ -5818,7 +5844,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="323"/>
+      <c r="A37" s="324"/>
       <c r="B37" s="28"/>
       <c r="C37" s="275"/>
       <c r="D37" s="275"/>
@@ -5831,7 +5857,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="323"/>
+      <c r="A38" s="324"/>
       <c r="B38" s="28"/>
       <c r="C38" s="275"/>
       <c r="D38" s="275"/>
@@ -5844,7 +5870,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="323"/>
+      <c r="A39" s="324"/>
       <c r="B39" s="28"/>
       <c r="C39" s="275"/>
       <c r="D39" s="275"/>
@@ -5857,7 +5883,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="323"/>
+      <c r="A40" s="324"/>
       <c r="B40" s="28"/>
       <c r="C40" s="275"/>
       <c r="D40" s="275"/>
@@ -5870,7 +5896,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="323"/>
+      <c r="A41" s="324"/>
       <c r="B41" s="28"/>
       <c r="C41" s="275"/>
       <c r="D41" s="275"/>
@@ -5883,7 +5909,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="323"/>
+      <c r="A42" s="324"/>
       <c r="B42" s="28"/>
       <c r="C42" s="275"/>
       <c r="D42" s="275"/>
@@ -5896,7 +5922,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="323"/>
+      <c r="A43" s="324"/>
       <c r="B43" s="28"/>
       <c r="C43" s="275"/>
       <c r="D43" s="275"/>
@@ -5909,7 +5935,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="323"/>
+      <c r="A44" s="324"/>
       <c r="B44" s="28"/>
       <c r="C44" s="275"/>
       <c r="D44" s="275"/>
@@ -5922,7 +5948,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="323"/>
+      <c r="A45" s="324"/>
       <c r="B45" s="28"/>
       <c r="C45" s="275"/>
       <c r="D45" s="275"/>
@@ -5935,7 +5961,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="323"/>
+      <c r="A46" s="324"/>
       <c r="B46" s="28"/>
       <c r="C46" s="275"/>
       <c r="D46" s="275"/>
@@ -5948,7 +5974,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="323"/>
+      <c r="A47" s="324"/>
       <c r="B47" s="28"/>
       <c r="C47" s="275"/>
       <c r="D47" s="275"/>
@@ -5961,7 +5987,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="323"/>
+      <c r="A48" s="324"/>
       <c r="B48" s="28"/>
       <c r="C48" s="275"/>
       <c r="D48" s="275"/>
@@ -5974,7 +6000,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="323"/>
+      <c r="A49" s="324"/>
       <c r="B49" s="28"/>
       <c r="C49" s="275"/>
       <c r="D49" s="275"/>
@@ -5987,7 +6013,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="323"/>
+      <c r="A50" s="324"/>
       <c r="B50" s="28"/>
       <c r="C50" s="275"/>
       <c r="D50" s="275"/>
@@ -6000,7 +6026,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="323"/>
+      <c r="A51" s="324"/>
       <c r="B51" s="28"/>
       <c r="C51" s="275"/>
       <c r="D51" s="275"/>
@@ -6013,7 +6039,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="323"/>
+      <c r="A52" s="324"/>
       <c r="B52" s="28"/>
       <c r="C52" s="275"/>
       <c r="D52" s="275"/>
@@ -6026,7 +6052,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="323"/>
+      <c r="A53" s="324"/>
       <c r="B53" s="28"/>
       <c r="C53" s="275"/>
       <c r="D53" s="275"/>
@@ -6039,7 +6065,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="323"/>
+      <c r="A54" s="324"/>
       <c r="B54" s="28"/>
       <c r="C54" s="275"/>
       <c r="D54" s="275"/>
@@ -6052,7 +6078,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="323"/>
+      <c r="A55" s="324"/>
       <c r="B55" s="28"/>
       <c r="C55" s="275"/>
       <c r="D55" s="275"/>
@@ -6064,7 +6090,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="323"/>
+      <c r="A56" s="324"/>
       <c r="B56" s="28"/>
       <c r="C56" s="275"/>
       <c r="D56" s="275"/>
@@ -6076,7 +6102,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="323"/>
+      <c r="A57" s="324"/>
       <c r="B57" s="28"/>
       <c r="C57" s="275"/>
       <c r="D57" s="275"/>
@@ -6088,7 +6114,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="323"/>
+      <c r="A58" s="324"/>
       <c r="B58" s="28"/>
       <c r="C58" s="275"/>
       <c r="D58" s="275"/>
@@ -6100,7 +6126,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="323"/>
+      <c r="A59" s="324"/>
       <c r="B59" s="28"/>
       <c r="C59" s="275"/>
       <c r="D59" s="275"/>
@@ -6112,7 +6138,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="323"/>
+      <c r="A60" s="324"/>
       <c r="B60" s="28"/>
       <c r="C60" s="275"/>
       <c r="D60" s="275"/>
@@ -6124,7 +6150,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="323"/>
+      <c r="A61" s="324"/>
       <c r="B61" s="28"/>
       <c r="C61" s="275"/>
       <c r="D61" s="275"/>
@@ -6136,7 +6162,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="323"/>
+      <c r="A62" s="324"/>
       <c r="B62" s="28"/>
       <c r="C62" s="275"/>
       <c r="D62" s="275"/>
@@ -6148,7 +6174,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="323"/>
+      <c r="A63" s="324"/>
       <c r="B63" s="28"/>
       <c r="C63" s="275"/>
       <c r="D63" s="275"/>
@@ -6160,7 +6186,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="323"/>
+      <c r="A64" s="324"/>
       <c r="B64" s="28"/>
       <c r="C64" s="275"/>
       <c r="D64" s="275"/>
@@ -6172,7 +6198,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="323"/>
+      <c r="A65" s="324"/>
       <c r="B65" s="28"/>
       <c r="C65" s="275"/>
       <c r="D65" s="275"/>
@@ -6184,7 +6210,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="323"/>
+      <c r="A66" s="324"/>
       <c r="B66" s="28"/>
       <c r="C66" s="275"/>
       <c r="D66" s="275"/>
@@ -6196,7 +6222,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="323"/>
+      <c r="A67" s="324"/>
       <c r="B67" s="28"/>
       <c r="C67" s="275"/>
       <c r="D67" s="275"/>
@@ -6208,7 +6234,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="323"/>
+      <c r="A68" s="324"/>
       <c r="B68" s="28"/>
       <c r="C68" s="275"/>
       <c r="D68" s="275"/>
@@ -6220,7 +6246,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="323"/>
+      <c r="A69" s="324"/>
       <c r="B69" s="28"/>
       <c r="C69" s="275"/>
       <c r="D69" s="275"/>
@@ -6232,7 +6258,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="323"/>
+      <c r="A70" s="324"/>
       <c r="B70" s="28"/>
       <c r="C70" s="275"/>
       <c r="D70" s="275"/>
@@ -6244,7 +6270,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="323"/>
+      <c r="A71" s="324"/>
       <c r="B71" s="28"/>
       <c r="C71" s="275"/>
       <c r="D71" s="275"/>
@@ -6256,7 +6282,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="323"/>
+      <c r="A72" s="324"/>
       <c r="B72" s="28"/>
       <c r="C72" s="275"/>
       <c r="D72" s="275"/>
@@ -6268,7 +6294,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="323"/>
+      <c r="A73" s="324"/>
       <c r="B73" s="28"/>
       <c r="C73" s="275"/>
       <c r="D73" s="275"/>
@@ -6280,7 +6306,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="323"/>
+      <c r="A74" s="324"/>
       <c r="B74" s="28"/>
       <c r="C74" s="275"/>
       <c r="D74" s="275"/>
@@ -6292,7 +6318,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="323"/>
+      <c r="A75" s="324"/>
       <c r="B75" s="28"/>
       <c r="C75" s="275"/>
       <c r="D75" s="275"/>
@@ -6304,7 +6330,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="323"/>
+      <c r="A76" s="324"/>
       <c r="B76" s="28"/>
       <c r="C76" s="275"/>
       <c r="D76" s="275"/>
@@ -6316,7 +6342,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="323"/>
+      <c r="A77" s="324"/>
       <c r="B77" s="28"/>
       <c r="C77" s="275"/>
       <c r="D77" s="275"/>
@@ -6328,7 +6354,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="323"/>
+      <c r="A78" s="324"/>
       <c r="B78" s="28"/>
       <c r="C78" s="275"/>
       <c r="D78" s="275"/>
@@ -6340,7 +6366,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="323"/>
+      <c r="A79" s="324"/>
       <c r="B79" s="28"/>
       <c r="C79" s="275"/>
       <c r="D79" s="275"/>
@@ -6352,7 +6378,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="323"/>
+      <c r="A80" s="324"/>
       <c r="B80" s="28"/>
       <c r="C80" s="275"/>
       <c r="D80" s="275"/>
@@ -6364,7 +6390,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="323"/>
+      <c r="A81" s="324"/>
       <c r="B81" s="28"/>
       <c r="C81" s="275"/>
       <c r="D81" s="275"/>
@@ -6376,7 +6402,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="323"/>
+      <c r="A82" s="324"/>
       <c r="B82" s="28"/>
       <c r="C82" s="275"/>
       <c r="D82" s="275"/>
@@ -6388,15 +6414,15 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="323"/>
+      <c r="A83" s="324"/>
       <c r="B83" s="33"/>
       <c r="C83" s="277">
         <f>SUM(C5:C72)</f>
-        <v>11021038</v>
+        <v>11521038</v>
       </c>
       <c r="D83" s="277">
         <f>SUM(D5:D77)</f>
-        <v>10995000</v>
+        <v>11495000</v>
       </c>
       <c r="E83" s="279">
         <f>E71</f>
@@ -6426,7 +6452,7 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -6441,67 +6467,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="328" t="s">
+      <c r="A1" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="328"/>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="328"/>
-      <c r="F1" s="328"/>
-      <c r="G1" s="328"/>
-      <c r="H1" s="328"/>
-      <c r="I1" s="328"/>
-      <c r="J1" s="328"/>
-      <c r="K1" s="328"/>
-      <c r="L1" s="328"/>
-      <c r="M1" s="328"/>
-      <c r="N1" s="328"/>
-      <c r="O1" s="328"/>
-      <c r="P1" s="328"/>
-      <c r="Q1" s="328"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="325"/>
+      <c r="Q1" s="325"/>
     </row>
     <row r="2" spans="1:24" s="74" customFormat="1" ht="18">
-      <c r="A2" s="329" t="s">
+      <c r="A2" s="326" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="329"/>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
-      <c r="H2" s="329"/>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
-      <c r="K2" s="329"/>
-      <c r="L2" s="329"/>
-      <c r="M2" s="329"/>
-      <c r="N2" s="329"/>
-      <c r="O2" s="329"/>
-      <c r="P2" s="329"/>
-      <c r="Q2" s="329"/>
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="326"/>
+      <c r="G2" s="326"/>
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="326"/>
+      <c r="N2" s="326"/>
+      <c r="O2" s="326"/>
+      <c r="P2" s="326"/>
+      <c r="Q2" s="326"/>
     </row>
     <row r="3" spans="1:24" s="75" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="330" t="s">
+      <c r="A3" s="327" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="331"/>
-      <c r="C3" s="331"/>
-      <c r="D3" s="331"/>
-      <c r="E3" s="331"/>
-      <c r="F3" s="331"/>
-      <c r="G3" s="331"/>
-      <c r="H3" s="331"/>
-      <c r="I3" s="331"/>
-      <c r="J3" s="331"/>
-      <c r="K3" s="331"/>
-      <c r="L3" s="331"/>
-      <c r="M3" s="331"/>
-      <c r="N3" s="331"/>
-      <c r="O3" s="331"/>
-      <c r="P3" s="331"/>
-      <c r="Q3" s="332"/>
+      <c r="B3" s="328"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="328"/>
+      <c r="M3" s="328"/>
+      <c r="N3" s="328"/>
+      <c r="O3" s="328"/>
+      <c r="P3" s="328"/>
+      <c r="Q3" s="329"/>
       <c r="S3" s="58"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6510,52 +6536,52 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="76" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="333" t="s">
+      <c r="A4" s="330" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="335" t="s">
+      <c r="B4" s="332" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="324" t="s">
+      <c r="C4" s="334" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="324" t="s">
+      <c r="D4" s="334" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="324" t="s">
+      <c r="E4" s="334" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="324" t="s">
+      <c r="F4" s="334" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="324" t="s">
+      <c r="G4" s="334" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="324" t="s">
-        <v>243</v>
-      </c>
-      <c r="I4" s="324" t="s">
+      <c r="H4" s="334" t="s">
         <v>242</v>
       </c>
-      <c r="J4" s="324" t="s">
+      <c r="I4" s="334" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" s="334" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="324" t="s">
+      <c r="K4" s="334" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="324" t="s">
+      <c r="L4" s="334" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="324" t="s">
+      <c r="M4" s="334" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="324" t="s">
+      <c r="N4" s="334" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="326" t="s">
+      <c r="O4" s="338" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="337" t="s">
+      <c r="P4" s="336" t="s">
         <v>73</v>
       </c>
       <c r="Q4" s="137" t="s">
@@ -6568,22 +6594,22 @@
       <c r="W4" s="78"/>
     </row>
     <row r="5" spans="1:24" s="76" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="334"/>
-      <c r="B5" s="336"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="H5" s="325"/>
-      <c r="I5" s="325"/>
-      <c r="J5" s="325"/>
-      <c r="K5" s="325"/>
-      <c r="L5" s="325"/>
-      <c r="M5" s="325"/>
-      <c r="N5" s="325"/>
-      <c r="O5" s="327"/>
-      <c r="P5" s="338"/>
+      <c r="A5" s="331"/>
+      <c r="B5" s="333"/>
+      <c r="C5" s="335"/>
+      <c r="D5" s="335"/>
+      <c r="E5" s="335"/>
+      <c r="F5" s="335"/>
+      <c r="G5" s="335"/>
+      <c r="H5" s="335"/>
+      <c r="I5" s="335"/>
+      <c r="J5" s="335"/>
+      <c r="K5" s="335"/>
+      <c r="L5" s="335"/>
+      <c r="M5" s="335"/>
+      <c r="N5" s="335"/>
+      <c r="O5" s="339"/>
+      <c r="P5" s="337"/>
       <c r="Q5" s="138" t="s">
         <v>48</v>
       </c>
@@ -7389,7 +7415,7 @@
     </row>
     <row r="25" spans="1:23" s="99" customFormat="1">
       <c r="A25" s="83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="91">
         <v>1100</v>
@@ -7431,7 +7457,7 @@
     </row>
     <row r="26" spans="1:23" s="14" customFormat="1">
       <c r="A26" s="83" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="91">
         <v>1100</v>
@@ -7473,7 +7499,7 @@
     </row>
     <row r="27" spans="1:23" s="14" customFormat="1">
       <c r="A27" s="83" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="91">
         <v>1000</v>
@@ -7511,7 +7537,7 @@
     </row>
     <row r="28" spans="1:23" s="14" customFormat="1">
       <c r="A28" s="83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" s="91"/>
       <c r="C28" s="84">
@@ -7551,7 +7577,7 @@
     </row>
     <row r="29" spans="1:23" s="14" customFormat="1">
       <c r="A29" s="83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B29" s="91">
         <v>1500</v>
@@ -7591,7 +7617,7 @@
     </row>
     <row r="30" spans="1:23" s="14" customFormat="1">
       <c r="A30" s="83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" s="91">
         <v>1300</v>
@@ -7634,25 +7660,37 @@
       <c r="U30" s="101"/>
     </row>
     <row r="31" spans="1:23" s="14" customFormat="1">
-      <c r="A31" s="83"/>
+      <c r="A31" s="83" t="s">
+        <v>251</v>
+      </c>
       <c r="B31" s="91"/>
       <c r="C31" s="84"/>
       <c r="D31" s="92"/>
       <c r="E31" s="92"/>
       <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
+      <c r="G31" s="92">
+        <v>120</v>
+      </c>
       <c r="H31" s="92"/>
       <c r="I31" s="92"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="92"/>
+      <c r="J31" s="103">
+        <v>30</v>
+      </c>
+      <c r="K31" s="92">
+        <v>480</v>
+      </c>
       <c r="L31" s="92"/>
       <c r="M31" s="92"/>
-      <c r="N31" s="123"/>
+      <c r="N31" s="123">
+        <v>20</v>
+      </c>
       <c r="O31" s="92"/>
-      <c r="P31" s="94"/>
+      <c r="P31" s="94">
+        <v>360</v>
+      </c>
       <c r="Q31" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="R31" s="89"/>
     </row>
@@ -7671,11 +7709,13 @@
       <c r="L32" s="92"/>
       <c r="M32" s="92"/>
       <c r="N32" s="123"/>
-      <c r="O32" s="92"/>
+      <c r="O32" s="92">
+        <v>10000</v>
+      </c>
       <c r="P32" s="94"/>
       <c r="Q32" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="R32" s="98"/>
       <c r="S32" s="14"/>
@@ -7798,7 +7838,7 @@
       </c>
       <c r="G37" s="110">
         <f>SUM(G6:G36)</f>
-        <v>5470</v>
+        <v>5590</v>
       </c>
       <c r="H37" s="110">
         <f t="shared" si="1"/>
@@ -7810,11 +7850,11 @@
       </c>
       <c r="J37" s="110">
         <f t="shared" si="1"/>
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="K37" s="110">
         <f t="shared" si="1"/>
-        <v>11950</v>
+        <v>12430</v>
       </c>
       <c r="L37" s="110">
         <f t="shared" si="1"/>
@@ -7826,19 +7866,19 @@
       </c>
       <c r="N37" s="126">
         <f t="shared" si="1"/>
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="O37" s="110">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P37" s="111">
         <f t="shared" si="1"/>
-        <v>1844</v>
+        <v>2204</v>
       </c>
       <c r="Q37" s="112">
         <f>SUM(Q6:Q36)</f>
-        <v>62930</v>
+        <v>73940</v>
       </c>
       <c r="S37" s="243" t="s">
         <v>55</v>
@@ -9842,10 +9882,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -9861,6 +9897,10 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9874,8 +9914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView topLeftCell="A109" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9902,14 +9942,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="344" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="345"/>
+      <c r="B1" s="345"/>
+      <c r="C1" s="345"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="346"/>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
       <c r="I1" s="154"/>
@@ -10003,14 +10043,14 @@
       <c r="CS1" s="149"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="347" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="348"/>
+      <c r="B2" s="348"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="349"/>
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
       <c r="I2" s="154"/>
@@ -10104,14 +10144,14 @@
       <c r="CS2" s="149"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="350" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="350"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="351"/>
+      <c r="B3" s="351"/>
+      <c r="C3" s="351"/>
+      <c r="D3" s="351"/>
+      <c r="E3" s="351"/>
+      <c r="F3" s="352"/>
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
       <c r="I3" s="154"/>
@@ -12447,7 +12487,7 @@
     </row>
     <row r="24" spans="1:97">
       <c r="A24" s="194" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="57">
         <v>355920</v>
@@ -12559,7 +12599,7 @@
     </row>
     <row r="25" spans="1:97">
       <c r="A25" s="194" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" s="57">
         <v>646940</v>
@@ -12671,7 +12711,7 @@
     </row>
     <row r="26" spans="1:97">
       <c r="A26" s="194" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="57">
         <v>463880</v>
@@ -12783,7 +12823,7 @@
     </row>
     <row r="27" spans="1:97">
       <c r="A27" s="194" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" s="57">
         <v>297100</v>
@@ -12895,7 +12935,7 @@
     </row>
     <row r="28" spans="1:97">
       <c r="A28" s="194" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B28" s="57">
         <v>538700</v>
@@ -13007,7 +13047,7 @@
     </row>
     <row r="29" spans="1:97">
       <c r="A29" s="194" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B29" s="57">
         <v>730390</v>
@@ -13118,16 +13158,26 @@
       <c r="CS29" s="149"/>
     </row>
     <row r="30" spans="1:97">
-      <c r="A30" s="194"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="57"/>
+      <c r="A30" s="194" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="57">
+        <v>362000</v>
+      </c>
+      <c r="C30" s="60">
+        <v>383680</v>
+      </c>
+      <c r="D30" s="57">
+        <v>1010</v>
+      </c>
       <c r="E30" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>384690</v>
       </c>
       <c r="F30" s="246"/>
-      <c r="G30" s="261"/>
+      <c r="G30" s="261">
+        <v>1450</v>
+      </c>
       <c r="H30" s="152"/>
       <c r="I30" s="171"/>
       <c r="J30" s="152"/>
@@ -13429,23 +13479,23 @@
       </c>
       <c r="B33" s="282">
         <f>SUM(B5:B32)</f>
-        <v>10425760</v>
+        <v>10787760</v>
       </c>
       <c r="C33" s="283">
         <f>SUM(C5:C32)</f>
-        <v>10063086</v>
+        <v>10446766</v>
       </c>
       <c r="D33" s="282">
         <f>SUM(D5:D32)</f>
-        <v>62084</v>
+        <v>63094</v>
       </c>
       <c r="E33" s="282">
         <f>SUM(E5:E32)</f>
-        <v>10125170</v>
+        <v>10509860</v>
       </c>
       <c r="F33" s="282">
         <f>B33-E33</f>
-        <v>300590</v>
+        <v>277900</v>
       </c>
       <c r="G33" s="284"/>
       <c r="H33" s="150"/>
@@ -13640,12 +13690,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="144"/>
-      <c r="B35" s="341" t="s">
+      <c r="B35" s="342" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="341"/>
-      <c r="D35" s="341"/>
-      <c r="E35" s="341"/>
+      <c r="C35" s="342"/>
+      <c r="D35" s="342"/>
+      <c r="E35" s="342"/>
       <c r="F35" s="145"/>
       <c r="G35" s="150"/>
       <c r="H35" s="150"/>
@@ -14080,10 +14130,10 @@
         <v>180</v>
       </c>
       <c r="D39" s="220">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="E39" s="187" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F39" s="143"/>
       <c r="G39" s="150"/>
@@ -14412,7 +14462,7 @@
         <v>1500</v>
       </c>
       <c r="E42" s="188" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F42" s="149"/>
       <c r="G42" s="158" t="s">
@@ -14526,10 +14576,10 @@
         <v>13</v>
       </c>
       <c r="F43" s="145"/>
-      <c r="G43" s="342"/>
-      <c r="H43" s="342"/>
-      <c r="I43" s="342"/>
-      <c r="J43" s="342"/>
+      <c r="G43" s="343"/>
+      <c r="H43" s="343"/>
+      <c r="I43" s="343"/>
+      <c r="J43" s="343"/>
       <c r="K43" s="69"/>
       <c r="L43" s="154"/>
       <c r="M43" s="69"/>
@@ -14852,7 +14902,7 @@
         <v>610340</v>
       </c>
       <c r="E46" s="309" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F46" s="142"/>
       <c r="G46" s="149"/>
@@ -14969,10 +15019,10 @@
       </c>
       <c r="C47" s="127"/>
       <c r="D47" s="223">
-        <v>214690</v>
+        <v>200000</v>
       </c>
       <c r="E47" s="189" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F47" s="143"/>
       <c r="G47" s="149"/>
@@ -15209,10 +15259,10 @@
       </c>
       <c r="C49" s="127"/>
       <c r="D49" s="223">
-        <v>153000</v>
+        <v>150000</v>
       </c>
       <c r="E49" s="189" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F49" s="143"/>
       <c r="G49" s="149"/>
@@ -15332,7 +15382,7 @@
         <v>198780</v>
       </c>
       <c r="E50" s="189" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F50" s="143"/>
       <c r="G50" s="149"/>
@@ -15569,10 +15619,10 @@
       </c>
       <c r="C52" s="127"/>
       <c r="D52" s="223">
-        <v>24750</v>
+        <v>29950</v>
       </c>
       <c r="E52" s="190" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F52" s="143"/>
       <c r="G52" s="149"/>
@@ -15682,7 +15732,7 @@
         <v>32120</v>
       </c>
       <c r="E53" s="191" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F53" s="143"/>
       <c r="G53" s="149"/>
@@ -15802,7 +15852,7 @@
         <v>60790</v>
       </c>
       <c r="E54" s="189" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F54" s="143"/>
       <c r="G54" s="149"/>
@@ -18638,7 +18688,7 @@
         <v>9000</v>
       </c>
       <c r="E79" s="189" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F79" s="143"/>
       <c r="G79" s="149"/>
@@ -18982,7 +19032,7 @@
         <v>4216</v>
       </c>
       <c r="E82" s="189" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F82" s="145"/>
       <c r="G82" s="149"/>
@@ -19102,7 +19152,7 @@
         <v>16670</v>
       </c>
       <c r="E83" s="190" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F83" s="145"/>
       <c r="G83" s="149"/>
@@ -19342,7 +19392,7 @@
         <v>37560</v>
       </c>
       <c r="E85" s="190" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F85" s="145"/>
       <c r="G85" s="149"/>
@@ -19460,7 +19510,7 @@
         <v>1560</v>
       </c>
       <c r="E86" s="191" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F86" s="145"/>
       <c r="G86" s="149"/>
@@ -19814,7 +19864,7 @@
         <v>20000</v>
       </c>
       <c r="E89" s="190" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F89" s="143"/>
       <c r="G89" s="149"/>
@@ -20044,17 +20094,17 @@
     </row>
     <row r="91" spans="1:97">
       <c r="A91" s="239" t="s">
+        <v>243</v>
+      </c>
+      <c r="B91" s="62" t="s">
         <v>244</v>
-      </c>
-      <c r="B91" s="62" t="s">
-        <v>245</v>
       </c>
       <c r="C91" s="127"/>
       <c r="D91" s="223">
         <v>5000</v>
       </c>
       <c r="E91" s="191" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F91" s="143"/>
       <c r="G91" s="149"/>
@@ -20167,14 +20217,14 @@
         <v>230</v>
       </c>
       <c r="B92" s="62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C92" s="127"/>
       <c r="D92" s="223">
         <v>18530</v>
       </c>
       <c r="E92" s="190" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F92" s="149"/>
       <c r="G92" s="149"/>
@@ -22437,19 +22487,11 @@
       <c r="CS113" s="149"/>
     </row>
     <row r="114" spans="1:97">
-      <c r="A114" s="240" t="s">
-        <v>47</v>
-      </c>
-      <c r="B114" s="62" t="s">
-        <v>234</v>
-      </c>
+      <c r="A114" s="240"/>
+      <c r="B114" s="62"/>
       <c r="C114" s="127"/>
-      <c r="D114" s="223">
-        <v>10000</v>
-      </c>
-      <c r="E114" s="191" t="s">
-        <v>237</v>
-      </c>
+      <c r="D114" s="223"/>
+      <c r="E114" s="191"/>
       <c r="F114" s="149"/>
       <c r="G114" s="149"/>
       <c r="H114" s="199"/>
@@ -22995,14 +23037,14 @@
       <c r="CS118" s="149"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="339" t="s">
+      <c r="A119" s="340" t="s">
         <v>34</v>
       </c>
-      <c r="B119" s="340"/>
-      <c r="C119" s="352"/>
+      <c r="B119" s="341"/>
+      <c r="C119" s="353"/>
       <c r="D119" s="226">
         <f>SUM(D37:D118)</f>
-        <v>2191591</v>
+        <v>2168901</v>
       </c>
       <c r="E119" s="218"/>
       <c r="F119" s="149"/>
@@ -23202,14 +23244,14 @@
       <c r="CS120" s="149"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="339" t="s">
+      <c r="A121" s="340" t="s">
         <v>35</v>
       </c>
-      <c r="B121" s="340"/>
-      <c r="C121" s="340"/>
+      <c r="B121" s="341"/>
+      <c r="C121" s="341"/>
       <c r="D121" s="226">
         <f>D119+M121</f>
-        <v>2191591</v>
+        <v>2168901</v>
       </c>
       <c r="E121" s="218"/>
       <c r="F121" s="149"/>
@@ -34441,8 +34483,8 @@
   </sheetPr>
   <dimension ref="A1:AC219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34461,35 +34503,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="354" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="355"/>
+      <c r="B1" s="355"/>
+      <c r="C1" s="355"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="356"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="362" t="s">
+      <c r="A2" s="363" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="363"/>
-      <c r="C2" s="363"/>
-      <c r="D2" s="363"/>
-      <c r="E2" s="364"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="365"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="356" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" s="357"/>
-      <c r="C3" s="357"/>
-      <c r="D3" s="357"/>
-      <c r="E3" s="358"/>
+      <c r="A3" s="357" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="358"/>
+      <c r="C3" s="358"/>
+      <c r="D3" s="358"/>
+      <c r="E3" s="359"/>
       <c r="F3" s="5"/>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -34516,15 +34558,15 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="23.25">
-      <c r="A4" s="365" t="s">
+      <c r="A4" s="366" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="366"/>
+      <c r="B4" s="367"/>
       <c r="C4" s="295"/>
-      <c r="D4" s="367" t="s">
+      <c r="D4" s="368" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="368"/>
+      <c r="E4" s="369"/>
       <c r="F4" s="5"/>
       <c r="G4" s="50"/>
       <c r="H4" s="6"/>
@@ -34562,7 +34604,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="263">
-        <v>6538111.0965</v>
+        <v>6834184.4653714299</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="286"/>
@@ -34594,7 +34636,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="267">
-        <v>277195.05668095243</v>
+        <v>286843.85312380956</v>
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="43" t="s">
@@ -34632,7 +34674,7 @@
     </row>
     <row r="7" spans="1:29" ht="21.75">
       <c r="A7" s="315" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B7" s="268">
         <v>66256</v>
@@ -34642,7 +34684,7 @@
         <v>71</v>
       </c>
       <c r="E7" s="263">
-        <v>712178.96018095128</v>
+        <v>480692.38775238022</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="289"/>
@@ -34740,14 +34782,14 @@
         <v>14</v>
       </c>
       <c r="B10" s="267">
-        <v>62930</v>
+        <v>73940</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="43" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="263">
-        <v>2191591</v>
+        <v>2168901</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="251"/>
@@ -34779,14 +34821,14 @@
         <v>136</v>
       </c>
       <c r="B11" s="267">
-        <v>0</v>
+        <v>75300</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="44" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="263">
-        <v>140410</v>
+        <v>141860</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="251"/>
@@ -34824,14 +34866,14 @@
       </c>
       <c r="B12" s="268">
         <f>B6+B7+B8-B10-B11</f>
-        <v>280521.05668095243</v>
+        <v>203859.85312380956</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E12" s="265">
-        <v>650624</v>
+        <v>552184</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>55</v>
@@ -34866,12 +34908,8 @@
       <c r="A13" s="270"/>
       <c r="B13" s="267"/>
       <c r="C13" s="44"/>
-      <c r="D13" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="266">
-        <v>21568</v>
-      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="266"/>
       <c r="F13" s="8"/>
       <c r="G13" s="254"/>
       <c r="H13" s="255"/>
@@ -34901,7 +34939,7 @@
     </row>
     <row r="14" spans="1:29" ht="21.75">
       <c r="A14" s="316" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B14" s="319">
         <v>2000000</v>
@@ -34941,7 +34979,7 @@
       </c>
       <c r="B15" s="269">
         <f>B5+B6+B7+B8-B10-B11+B14</f>
-        <v>10280521.056680951</v>
+        <v>10203859.85312381</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="44" t="s">
@@ -34949,7 +34987,7 @@
       </c>
       <c r="E15" s="266">
         <f>E5+E6+E7+E10+E11+E12+E13</f>
-        <v>10280521.056680951</v>
+        <v>10203859.85312381</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="121">
@@ -34958,7 +34996,7 @@
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -35019,13 +35057,13 @@
       <c r="AC16" s="8"/>
     </row>
     <row r="17" spans="1:29" ht="22.5">
-      <c r="A17" s="359" t="s">
+      <c r="A17" s="360" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="360"/>
-      <c r="C17" s="360"/>
-      <c r="D17" s="360"/>
-      <c r="E17" s="361"/>
+      <c r="B17" s="361"/>
+      <c r="C17" s="361"/>
+      <c r="D17" s="361"/>
+      <c r="E17" s="362"/>
       <c r="F17" s="5"/>
       <c r="G17" s="9"/>
       <c r="H17" s="17"/>
@@ -35142,7 +35180,7 @@
         <v>166</v>
       </c>
       <c r="E20" s="307">
-        <v>214690</v>
+        <v>200000</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -35179,7 +35217,7 @@
         <v>202</v>
       </c>
       <c r="E21" s="305">
-        <v>153000</v>
+        <v>150000</v>
       </c>
       <c r="H21" s="37"/>
       <c r="I21" s="8"/>
@@ -35282,7 +35320,7 @@
     </row>
     <row r="24" spans="1:29" ht="21.75">
       <c r="A24" s="272" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B24" s="131">
         <v>37560</v>
